--- a/003 - lab2+/Результат.xlsx
+++ b/003 - lab2+/Результат.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99F9A0A-A177-1641-B300-6165C9C0B517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F6E6C-2A1A-764E-B7A8-351E522B1C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76200" yWindow="10820" windowWidth="21600" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5420" yWindow="4940" windowWidth="36120" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>IRNPOI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,7 +61,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Критическое значение</t>
+    <t>λ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Критическое
+значение</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>уровнь
+значимости</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -240,22 +262,61 @@
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -263,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,16 +353,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,92 +654,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="5"/>
-    <col min="2" max="2" width="11.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10" style="5"/>
-    <col min="10" max="12" width="14.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6" customWidth="1"/>
+    <col min="3" max="6" width="6" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="14.83203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="16" style="5" customWidth="1"/>
     <col min="14" max="14" width="10" style="5"/>
-    <col min="15" max="16" width="14.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="10" style="5"/>
+    <col min="15" max="17" width="14.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10" style="5"/>
+    <col min="20" max="21" width="14.83203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23" customHeight="1" thickBot="1">
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+    <row r="1" spans="1:14" ht="23" customHeight="1" thickBot="1">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" ht="36" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="8"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="I2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="23" customHeight="1" thickTop="1">
+    <row r="3" spans="1:14" ht="23" customHeight="1" thickTop="1">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
-        <v>87.578544061302594</v>
-      </c>
-      <c r="D3" s="12">
-        <v>124.342</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="13">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>100</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.565345122742199</v>
+      </c>
+      <c r="I3" s="15">
+        <v>16.918977604620402</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="23" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="23" customHeight="1" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>77.570247933884303</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>100</v>
+      </c>
+      <c r="E4" s="14">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14.8130005592083</v>
+      </c>
+      <c r="I4" s="11">
+        <v>15.507313055865399</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="23" customHeight="1" thickTop="1"/>
+    <row r="5" spans="1:14" ht="23" customHeight="1" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D3:D4"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
